--- a/Washed Up Greyhounds.xlsx
+++ b/Washed Up Greyhounds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyData\repos\mattkinloch.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE335A9B-C2FF-4B0B-BB9F-21FDD567E3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846F128A-E9E5-4B04-BEF8-34DC7B4D16F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2760" yWindow="4260" windowWidth="21600" windowHeight="11280" activeTab="3" xr2:uid="{D0533351-4FA4-48BE-8F87-E87F3867F149}"/>
+    <workbookView xWindow="-9375" yWindow="3885" windowWidth="21600" windowHeight="11280" activeTab="3" xr2:uid="{D0533351-4FA4-48BE-8F87-E87F3867F149}"/>
   </bookViews>
   <sheets>
     <sheet name="StdDev" sheetId="1" r:id="rId1"/>
@@ -359,10 +359,10 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>MeanMedianMode!$K$2:$K$13</c:f>
+              <c:f>MeanMedianMode!$K$2:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>114.94000000000001</c:v>
                 </c:pt>
@@ -398,6 +398,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>104.37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>111.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -682,10 +685,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>MeanMedianMode!$L$2:$L$13</c:f>
+              <c:f>MeanMedianMode!$L$2:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>111.02500000000001</c:v>
                 </c:pt>
@@ -721,6 +724,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>101.02500000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>118.72499999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -937,13 +943,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Team</a:t>
+              <a:t>Team Scores By Week</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Scores By Week</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1002,10 +1003,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>MeanMedianMode!$A$2:$A$13</c:f>
+              <c:f>MeanMedianMode!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>113.7</c:v>
                 </c:pt>
@@ -1041,6 +1042,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>94.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>143.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1072,10 +1076,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>MeanMedianMode!$B$2:$B$13</c:f>
+              <c:f>MeanMedianMode!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>95.25</c:v>
                 </c:pt>
@@ -1111,6 +1115,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>123.85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1142,10 +1149,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>MeanMedianMode!$C$2:$C$13</c:f>
+              <c:f>MeanMedianMode!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>148.85</c:v>
                 </c:pt>
@@ -1181,6 +1188,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>72.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>127.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1212,10 +1222,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>MeanMedianMode!$D$2:$D$13</c:f>
+              <c:f>MeanMedianMode!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>95.9</c:v>
                 </c:pt>
@@ -1251,6 +1261,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>123.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>119.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,10 +1295,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>MeanMedianMode!$E$2:$E$13</c:f>
+              <c:f>MeanMedianMode!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>165.4</c:v>
                 </c:pt>
@@ -1321,6 +1334,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>114.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>121.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1352,10 +1368,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>MeanMedianMode!$F$2:$F$13</c:f>
+              <c:f>MeanMedianMode!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>108.35</c:v>
                 </c:pt>
@@ -1391,6 +1407,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>101.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1424,10 +1443,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>MeanMedianMode!$G$2:$G$13</c:f>
+              <c:f>MeanMedianMode!$G$2:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>86.45</c:v>
                 </c:pt>
@@ -1463,6 +1482,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>137.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>86.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1496,10 +1518,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>MeanMedianMode!$H$2:$H$13</c:f>
+              <c:f>MeanMedianMode!$H$2:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>116.95</c:v>
                 </c:pt>
@@ -1535,6 +1557,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>118.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1568,10 +1593,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>MeanMedianMode!$I$2:$I$13</c:f>
+              <c:f>MeanMedianMode!$I$2:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>102.65</c:v>
                 </c:pt>
@@ -1607,6 +1632,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>79.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1640,10 +1668,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>MeanMedianMode!$J$2:$J$13</c:f>
+              <c:f>MeanMedianMode!$J$2:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>115.9</c:v>
                 </c:pt>
@@ -1679,6 +1707,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>102.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>128.69999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3603,13 +3634,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>55245</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>172402</xdr:rowOff>
+      <xdr:rowOff>143827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>360045</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>16192</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>178117</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3973,7 +4004,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4398,16 +4429,36 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="A14" s="12">
+        <v>143.25</v>
+      </c>
+      <c r="B14" s="12">
+        <v>84.5</v>
+      </c>
+      <c r="C14" s="12">
+        <v>127.8</v>
+      </c>
+      <c r="D14" s="12">
+        <v>119.15</v>
+      </c>
+      <c r="E14" s="12">
+        <v>121.5</v>
+      </c>
+      <c r="F14" s="12">
+        <v>101.95</v>
+      </c>
+      <c r="G14" s="12">
+        <v>86.4</v>
+      </c>
+      <c r="H14" s="12">
+        <v>118.3</v>
+      </c>
+      <c r="I14" s="12">
+        <v>85.95</v>
+      </c>
+      <c r="J14" s="12">
+        <v>128.69999999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -4424,43 +4475,43 @@
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <f>_xlfn.STDEV.P(A1:A14)</f>
-        <v>22.275548300397251</v>
+        <v>22.222912505715513</v>
       </c>
       <c r="B16" s="3">
         <f t="shared" ref="B16:J16" si="0">_xlfn.STDEV.P(B1:B14)</f>
-        <v>11.679078962686456</v>
+        <v>13.327561867252468</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" si="0"/>
-        <v>24.94204393299712</v>
+        <v>24.914356261581336</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" si="0"/>
-        <v>17.546360713992968</v>
+        <v>16.887917146946553</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="0"/>
-        <v>22.492994279701158</v>
+        <v>21.655374314160298</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
-        <v>17.726832983894599</v>
+        <v>17.194645340988263</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
-        <v>18.980766946803925</v>
+        <v>19.308165026391936</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="0"/>
-        <v>18.807720415356563</v>
+        <v>18.715711053462119</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="0"/>
-        <v>16.491110294640631</v>
+        <v>17.165792666516278</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="0"/>
-        <v>26.48461391649024</v>
+        <v>25.490029376858924</v>
       </c>
     </row>
   </sheetData>
@@ -4513,118 +4564,118 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>131.5</v>
+        <v>124.9</v>
       </c>
       <c r="B2" s="2">
-        <v>110.9</v>
+        <v>113.7</v>
       </c>
       <c r="C2" s="2">
         <v>99.3</v>
       </c>
       <c r="D2" s="2">
-        <v>120.5</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2">
-        <v>109.3</v>
+        <v>106.4</v>
       </c>
       <c r="F2" s="2">
-        <v>116.3</v>
+        <v>108.2</v>
       </c>
       <c r="G2" s="2">
-        <v>112.9</v>
+        <v>106.3</v>
       </c>
       <c r="H2" s="2">
-        <v>106.6</v>
+        <v>101.8</v>
       </c>
       <c r="I2" s="2">
-        <v>111.1</v>
+        <v>111.5</v>
       </c>
       <c r="J2" s="2">
-        <v>123.9</v>
+        <v>116.5</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
-        <v>94.75</v>
+        <v>143.25</v>
       </c>
       <c r="B3" s="12">
-        <v>123.85</v>
+        <v>84.5</v>
       </c>
       <c r="C3" s="12">
-        <v>72.099999999999994</v>
+        <v>127.8</v>
       </c>
       <c r="D3" s="12">
-        <v>123.5</v>
+        <v>119.15</v>
       </c>
       <c r="E3" s="12">
-        <v>114.45</v>
+        <v>121.5</v>
       </c>
       <c r="F3" s="12">
-        <v>99.6</v>
+        <v>101.95</v>
       </c>
       <c r="G3" s="12">
-        <v>137.75</v>
+        <v>86.4</v>
       </c>
       <c r="H3" s="12">
-        <v>95.5</v>
+        <v>118.3</v>
       </c>
       <c r="I3" s="12">
-        <v>79.75</v>
+        <v>85.95</v>
       </c>
       <c r="J3" s="12">
-        <v>102.45</v>
+        <v>128.69999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f xml:space="preserve"> A3 - A2</f>
-        <v>-36.75</v>
+        <v>18.349999999999994</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" ref="B4:J4" si="0" xml:space="preserve"> B3 - B2</f>
-        <v>12.949999999999989</v>
+        <v>-29.200000000000003</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>-27.200000000000003</v>
+        <v>28.5</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7.1500000000000057</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>5.1500000000000057</v>
+        <v>15.099999999999994</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>-16.700000000000003</v>
+        <v>-6.25</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>24.849999999999994</v>
+        <v>-19.899999999999991</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>-11.099999999999994</v>
+        <v>16.5</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>-31.349999999999994</v>
+        <v>-25.549999999999997</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>-21.450000000000003</v>
+        <v>12.199999999999989</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <f xml:space="preserve"> ABS(A4) + ABS(B4) + ABS(C4) + ABS(D4) + ABS(E4) + ABS(F4) + ABS(G4) + ABS(H4) + ABS(I4) + ABS(J4)</f>
-        <v>190.5</v>
+        <v>178.7</v>
       </c>
       <c r="B6">
         <f xml:space="preserve"> A6 / 10</f>
-        <v>19.05</v>
+        <v>17.869999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -4636,8 +4687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0CB9A9-AE01-4B1C-8AB2-EAAE8CCF773E}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5161,14 +5212,44 @@
         <v>101.02500000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K14" t="e">
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>143.25</v>
+      </c>
+      <c r="B14" s="12">
+        <v>84.5</v>
+      </c>
+      <c r="C14" s="12">
+        <v>127.8</v>
+      </c>
+      <c r="D14" s="12">
+        <v>119.15</v>
+      </c>
+      <c r="E14" s="12">
+        <v>121.5</v>
+      </c>
+      <c r="F14" s="12">
+        <v>101.95</v>
+      </c>
+      <c r="G14" s="12">
+        <v>86.4</v>
+      </c>
+      <c r="H14" s="12">
+        <v>118.3</v>
+      </c>
+      <c r="I14" s="12">
+        <v>85.95</v>
+      </c>
+      <c r="J14" s="12">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" t="e">
+        <v>111.75</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>118.72499999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5183,7 +5264,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5220,7 +5301,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L1" s="5"/>
     </row>
@@ -5608,17 +5689,37 @@
         <v>102.45</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>143.25</v>
+      </c>
+      <c r="B14" s="12">
+        <v>84.5</v>
+      </c>
+      <c r="C14" s="12">
+        <v>127.8</v>
+      </c>
+      <c r="D14" s="12">
+        <v>119.15</v>
+      </c>
+      <c r="E14" s="12">
+        <v>121.5</v>
+      </c>
+      <c r="F14" s="12">
+        <v>101.95</v>
+      </c>
+      <c r="G14" s="12">
+        <v>86.4</v>
+      </c>
+      <c r="H14" s="12">
+        <v>118.3</v>
+      </c>
+      <c r="I14" s="12">
+        <v>85.95</v>
+      </c>
+      <c r="J14" s="12">
+        <v>128.69999999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
@@ -6143,39 +6244,39 @@
       </c>
       <c r="B28" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C28" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E28" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F28" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I28" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J28" s="8">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -6227,46 +6328,46 @@
       </c>
       <c r="B30" s="9">
         <f t="shared" ref="B30:J30" si="10">SUM(B16:B29)</f>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C30" s="9">
         <f t="shared" si="10"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D30" s="9">
         <f t="shared" si="10"/>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E30" s="9">
         <f t="shared" si="10"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F30" s="9">
         <f t="shared" si="10"/>
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G30" s="9">
         <f t="shared" si="10"/>
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H30" s="9">
         <f t="shared" si="10"/>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I30" s="9">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J30" s="9">
         <f t="shared" si="10"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <f xml:space="preserve"> (9 * $K1) - A30</f>
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B31" s="9">
         <f t="shared" ref="B31:J31" si="11" xml:space="preserve"> (9 * $K1) - B30</f>
@@ -6274,35 +6375,35 @@
       </c>
       <c r="C31" s="9">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D31" s="9">
         <f t="shared" si="11"/>
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E31" s="9">
         <f t="shared" si="11"/>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F31" s="9">
         <f t="shared" si="11"/>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G31" s="9">
         <f t="shared" si="11"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H31" s="9">
         <f t="shared" si="11"/>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I31" s="9">
         <f t="shared" si="11"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J31" s="9">
         <f t="shared" si="11"/>
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -6312,19 +6413,19 @@
       </c>
       <c r="B32" s="10">
         <f t="shared" ref="B32:J32" si="12">COUNTIF($A31:$J31,"&gt;"&amp;B31) + 1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" s="10">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="10">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32" s="10">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" s="10">
         <f t="shared" si="12"/>

--- a/Washed Up Greyhounds.xlsx
+++ b/Washed Up Greyhounds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyData\repos\mattkinloch.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846F128A-E9E5-4B04-BEF8-34DC7B4D16F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1618B9FC-41B8-4045-8567-2657F195BD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9375" yWindow="3885" windowWidth="21600" windowHeight="11280" activeTab="3" xr2:uid="{D0533351-4FA4-48BE-8F87-E87F3867F149}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D0533351-4FA4-48BE-8F87-E87F3867F149}"/>
   </bookViews>
   <sheets>
     <sheet name="StdDev" sheetId="1" r:id="rId1"/>
@@ -359,10 +359,10 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>MeanMedianMode!$K$2:$K$14</c:f>
+              <c:f>MeanMedianMode!$K$2:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>114.94000000000001</c:v>
                 </c:pt>
@@ -401,6 +401,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>111.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120.24000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -685,10 +688,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>MeanMedianMode!$L$2:$L$14</c:f>
+              <c:f>MeanMedianMode!$L$2:$L$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>111.02500000000001</c:v>
                 </c:pt>
@@ -727,6 +730,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>118.72499999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>116.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1003,10 +1009,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>MeanMedianMode!$A$2:$A$14</c:f>
+              <c:f>MeanMedianMode!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>113.7</c:v>
                 </c:pt>
@@ -1045,6 +1051,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>143.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1076,10 +1085,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>MeanMedianMode!$B$2:$B$14</c:f>
+              <c:f>MeanMedianMode!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>95.25</c:v>
                 </c:pt>
@@ -1118,6 +1127,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>84.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1149,10 +1161,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>MeanMedianMode!$C$2:$C$14</c:f>
+              <c:f>MeanMedianMode!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>148.85</c:v>
                 </c:pt>
@@ -1191,6 +1203,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>127.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>117.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1222,10 +1237,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>MeanMedianMode!$D$2:$D$14</c:f>
+              <c:f>MeanMedianMode!$D$2:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>95.9</c:v>
                 </c:pt>
@@ -1264,6 +1279,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>119.15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>173.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1295,10 +1313,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>MeanMedianMode!$E$2:$E$14</c:f>
+              <c:f>MeanMedianMode!$E$2:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>165.4</c:v>
                 </c:pt>
@@ -1337,6 +1355,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>121.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1368,10 +1389,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>MeanMedianMode!$F$2:$F$14</c:f>
+              <c:f>MeanMedianMode!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>108.35</c:v>
                 </c:pt>
@@ -1410,6 +1431,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>101.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>121.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,10 +1467,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>MeanMedianMode!$G$2:$G$14</c:f>
+              <c:f>MeanMedianMode!$G$2:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>86.45</c:v>
                 </c:pt>
@@ -1485,6 +1509,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1518,10 +1545,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>MeanMedianMode!$H$2:$H$14</c:f>
+              <c:f>MeanMedianMode!$H$2:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>116.95</c:v>
                 </c:pt>
@@ -1560,6 +1587,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>118.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1593,10 +1623,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>MeanMedianMode!$I$2:$I$14</c:f>
+              <c:f>MeanMedianMode!$I$2:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>102.65</c:v>
                 </c:pt>
@@ -1635,6 +1665,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>85.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1668,10 +1701,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>MeanMedianMode!$J$2:$J$14</c:f>
+              <c:f>MeanMedianMode!$J$2:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>115.9</c:v>
                 </c:pt>
@@ -1710,6 +1743,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>128.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>149.94999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3668,13 +3704,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>173354</xdr:colOff>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>55245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>78105</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -4007,12 +4043,12 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4044,7 +4080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>113.7</v>
       </c>
@@ -4076,7 +4112,7 @@
         <v>115.9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>135.65</v>
       </c>
@@ -4108,7 +4144,7 @@
         <v>162.4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>104.05</v>
       </c>
@@ -4140,7 +4176,7 @@
         <v>131.6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>131.30000000000001</v>
       </c>
@@ -4172,7 +4208,7 @@
         <v>122.45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>168</v>
       </c>
@@ -4204,7 +4240,7 @@
         <v>146.30000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>96.35</v>
       </c>
@@ -4236,7 +4272,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>122.55</v>
       </c>
@@ -4268,7 +4304,7 @@
         <v>140.44999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>95</v>
       </c>
@@ -4300,7 +4336,7 @@
         <v>101.15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>108.5</v>
       </c>
@@ -4332,7 +4368,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>150.9</v>
       </c>
@@ -4364,7 +4400,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>128.69999999999999</v>
       </c>
@@ -4396,7 +4432,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>94.75</v>
       </c>
@@ -4428,7 +4464,7 @@
         <v>102.45</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>143.25</v>
       </c>
@@ -4460,7 +4496,7 @@
         <v>128.69999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4472,7 +4508,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <f>_xlfn.STDEV.P(A1:A14)</f>
         <v>22.222912505715513</v>
@@ -4525,12 +4561,12 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4562,120 +4598,120 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>124.9</v>
+        <v>123.3</v>
       </c>
       <c r="B2" s="2">
-        <v>113.7</v>
+        <v>112.3</v>
       </c>
       <c r="C2" s="2">
-        <v>99.3</v>
+        <v>111.7</v>
       </c>
       <c r="D2" s="2">
-        <v>112</v>
+        <v>119.9</v>
       </c>
       <c r="E2" s="2">
-        <v>106.4</v>
+        <v>104.7</v>
       </c>
       <c r="F2" s="2">
-        <v>108.2</v>
+        <v>110.3</v>
       </c>
       <c r="G2" s="2">
-        <v>106.3</v>
+        <v>105.6</v>
       </c>
       <c r="H2" s="2">
-        <v>101.8</v>
+        <v>88.6</v>
       </c>
       <c r="I2" s="2">
-        <v>111.5</v>
+        <v>107.4</v>
       </c>
       <c r="J2" s="2">
-        <v>116.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>116.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
-        <v>143.25</v>
+        <v>89.05</v>
       </c>
       <c r="B3" s="12">
-        <v>84.5</v>
+        <v>89.95</v>
       </c>
       <c r="C3" s="12">
-        <v>127.8</v>
+        <v>117.2</v>
       </c>
       <c r="D3" s="12">
-        <v>119.15</v>
+        <v>173.9</v>
       </c>
       <c r="E3" s="12">
-        <v>121.5</v>
+        <v>115</v>
       </c>
       <c r="F3" s="12">
-        <v>101.95</v>
+        <v>121.85</v>
       </c>
       <c r="G3" s="12">
-        <v>86.4</v>
+        <v>120.8</v>
       </c>
       <c r="H3" s="12">
-        <v>118.3</v>
+        <v>112.15</v>
       </c>
       <c r="I3" s="12">
-        <v>85.95</v>
+        <v>112.55</v>
       </c>
       <c r="J3" s="12">
-        <v>128.69999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>149.94999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <f xml:space="preserve"> A3 - A2</f>
-        <v>18.349999999999994</v>
+        <v>-34.25</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" ref="B4:J4" si="0" xml:space="preserve"> B3 - B2</f>
-        <v>-29.200000000000003</v>
+        <v>-22.349999999999994</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>5.5</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>7.1500000000000057</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>15.099999999999994</v>
+        <v>10.299999999999997</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>-6.25</v>
+        <v>11.549999999999997</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>-19.899999999999991</v>
+        <v>15.200000000000003</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>16.5</v>
+        <v>23.550000000000011</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>-25.549999999999997</v>
+        <v>5.1499999999999915</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>12.199999999999989</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>33.649999999999991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <f xml:space="preserve"> ABS(A4) + ABS(B4) + ABS(C4) + ABS(D4) + ABS(E4) + ABS(F4) + ABS(G4) + ABS(H4) + ABS(I4) + ABS(J4)</f>
-        <v>178.7</v>
+        <v>215.49999999999994</v>
       </c>
       <c r="B6">
         <f xml:space="preserve"> A6 / 10</f>
-        <v>17.869999999999997</v>
+        <v>21.549999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -4685,15 +4721,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0CB9A9-AE01-4B1C-8AB2-EAAE8CCF773E}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4732,7 +4768,7 @@
       </c>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>113.7</v>
       </c>
@@ -4772,7 +4808,7 @@
         <v>111.02500000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>135.65</v>
       </c>
@@ -4804,15 +4840,15 @@
         <v>162.4</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K14" si="0">AVERAGE(A3:J3)</f>
+        <f t="shared" ref="K3:K15" si="0">AVERAGE(A3:J3)</f>
         <v>117.88</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L14" si="1">MEDIAN(A3:J3)</f>
+        <f t="shared" ref="L3:L15" si="1">MEDIAN(A3:J3)</f>
         <v>119.82499999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>104.05</v>
       </c>
@@ -4852,7 +4888,7 @@
         <v>107.80000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>131.30000000000001</v>
       </c>
@@ -4892,7 +4928,7 @@
         <v>115.77500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>168</v>
       </c>
@@ -4932,7 +4968,7 @@
         <v>129.42500000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>96.35</v>
       </c>
@@ -4972,7 +5008,7 @@
         <v>119.69999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>122.55</v>
       </c>
@@ -5012,7 +5048,7 @@
         <v>108.55000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>95</v>
       </c>
@@ -5052,7 +5088,7 @@
         <v>100.30000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>108.5</v>
       </c>
@@ -5092,7 +5128,7 @@
         <v>98.699999999999989</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>150.9</v>
       </c>
@@ -5132,7 +5168,7 @@
         <v>101.325</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>128.69999999999999</v>
       </c>
@@ -5172,7 +5208,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>94.75</v>
       </c>
@@ -5212,7 +5248,7 @@
         <v>101.02500000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>143.25</v>
       </c>
@@ -5250,6 +5286,46 @@
       <c r="L14">
         <f t="shared" si="1"/>
         <v>118.72499999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
+        <v>89.05</v>
+      </c>
+      <c r="B15" s="12">
+        <v>89.95</v>
+      </c>
+      <c r="C15" s="12">
+        <v>117.2</v>
+      </c>
+      <c r="D15" s="12">
+        <v>173.9</v>
+      </c>
+      <c r="E15" s="12">
+        <v>115</v>
+      </c>
+      <c r="F15" s="12">
+        <v>121.85</v>
+      </c>
+      <c r="G15" s="12">
+        <v>120.8</v>
+      </c>
+      <c r="H15" s="12">
+        <v>112.15</v>
+      </c>
+      <c r="I15" s="12">
+        <v>112.55</v>
+      </c>
+      <c r="J15" s="12">
+        <v>149.94999999999999</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>120.24000000000001</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>116.1</v>
       </c>
     </row>
   </sheetData>
@@ -5263,13 +5339,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000E1A28-805B-42C8-978F-174F83BA24DD}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5305,7 +5381,7 @@
       </c>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>113.7</v>
       </c>
@@ -5337,7 +5413,7 @@
         <v>115.9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>135.65</v>
       </c>
@@ -5369,7 +5445,7 @@
         <v>162.4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>104.05</v>
       </c>
@@ -5401,7 +5477,7 @@
         <v>131.6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>131.30000000000001</v>
       </c>
@@ -5433,7 +5509,7 @@
         <v>122.45</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>168</v>
       </c>
@@ -5465,7 +5541,7 @@
         <v>146.30000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>96.35</v>
       </c>
@@ -5497,7 +5573,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>122.55</v>
       </c>
@@ -5529,7 +5605,7 @@
         <v>140.44999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>95</v>
       </c>
@@ -5561,7 +5637,7 @@
         <v>101.15</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>108.5</v>
       </c>
@@ -5593,7 +5669,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>150.9</v>
       </c>
@@ -5625,7 +5701,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>135.35</v>
       </c>
@@ -5657,7 +5733,7 @@
         <v>97.05</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>94.75</v>
       </c>
@@ -5689,7 +5765,7 @@
         <v>102.45</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>143.25</v>
       </c>
@@ -5721,7 +5797,7 @@
         <v>128.69999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -5733,7 +5809,7 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>COUNTIF(A2:J2,"&gt;"&amp;A2)</f>
         <v>4</v>
@@ -5775,7 +5851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f t="shared" ref="A17:A29" si="0">COUNTIF(A3:J3,"&gt;"&amp;A3)</f>
         <v>1</v>
@@ -5817,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5859,7 +5935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -5901,7 +5977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5943,7 +6019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5985,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6027,7 +6103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6069,7 +6145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -6111,7 +6187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6153,7 +6229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -6195,7 +6271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6237,7 +6313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6279,7 +6355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6321,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <f>SUM(A16:A29)</f>
         <v>42</v>
@@ -6364,7 +6440,7 @@
       </c>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <f xml:space="preserve"> (9 * $K1) - A30</f>
         <v>75</v>
@@ -6406,7 +6482,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <f>COUNTIF($A31:$J31,"&gt;"&amp;A31) + 1</f>
         <v>2</v>
